--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value644.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value644.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.250377889141887</v>
+        <v>1.182567834854126</v>
       </c>
       <c r="B1">
-        <v>2.256330853800998</v>
+        <v>2.330402135848999</v>
       </c>
       <c r="C1">
-        <v>2.971547747120538</v>
+        <v>3.763520240783691</v>
       </c>
       <c r="D1">
-        <v>3.442212093491915</v>
+        <v>3.128907203674316</v>
       </c>
       <c r="E1">
-        <v>1.642068573413273</v>
+        <v>1.1434725522995</v>
       </c>
     </row>
   </sheetData>
